--- a/driven_AI3.xlsx
+++ b/driven_AI3.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="204" yWindow="564" windowWidth="15036" windowHeight="5244"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="318">
   <si>
     <t>Name</t>
   </si>
@@ -138,11 +139,11 @@
   </si>
   <si>
     <t>(2) 01091977719
-(2) 01004541045
-(2)0224731098-0224731097</t>
-  </si>
-  <si>
-    <t> 21 Ahmed El Zomor, no. 301, Nasr city, Cairo, Egypt.</t>
+(2)0224731098-0224731097
+(2) 01004541045</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21 Ahmed El Zomor, no. 301, Nasr city, Cairo, Egypt.</t>
   </si>
   <si>
     <t>A
@@ -491,8 +492,8 @@
 /</t>
   </si>
   <si>
-    <t>www.facebook.com/arqamfc
-www.facebook.com/arqamfc/</t>
+    <t>www.facebook.com/arqamfc/
+www.facebook.com/arqamfc</t>
   </si>
   <si>
     <t>twitter.com/arqamfc</t>
@@ -1565,8 +1566,8 @@
     <t>www.linkedin.com/company/18119624/</t>
   </si>
   <si>
-    <t>Maadi, Cairo, Egypt.
-  33 Corniche El Nil, Abou Simbel Tower, Maadi, Cairo, Egypt.</t>
+    <t xml:space="preserve">  33 Corniche El Nil, Abou Simbel Tower, Maadi, Cairo, Egypt.
+Maadi, Cairo, Egypt.</t>
   </si>
   <si>
     <t>E
@@ -2025,7 +2026,7 @@
     <t>info@incorta.com</t>
   </si>
   <si>
-    <t>_x000D_
+    <t xml:space="preserve">
 New Cairo, Egypt</t>
   </si>
   <si>
@@ -2623,8 +2624,8 @@
 /</t>
   </si>
   <si>
-    <t>www.facebook.com/sharer/sharer.php?u=https%3a%2f%2fwww.microsoft.com%2fen-us%2fresearch%2fgroup%2fadvanced-technology-lab-cairo-2%2f
-www.facebook.com/microsoftresearch/
+    <t>www.facebook.com/microsoftresearch/
+www.facebook.com/sharer/sharer.php?u=https%3a%2f%2fwww.microsoft.com%2fen-us%2fresearch%2fgroup%2fadvanced-technology-lab-cairo-2%2f
 www.facebook.com/atlcairo/</t>
   </si>
   <si>
@@ -2768,19 +2769,19 @@
     <t>www.facebook.com/optomatica-211095829627524/?modal=admin_todo_tour</t>
   </si>
   <si>
-    <t>twitter.com/meetup
+    <t>twitter.com/pydatacairo
 twitter.com/viral_b_shah
-twitter.com/kslimes
-twitter.com/pydatacairo
+twitter.com/meetup
 twitter.com/acidflask
-twitter.com/optomatica</t>
+twitter.com/optomatica
+twitter.com/kslimes</t>
   </si>
   <si>
     <t>www.linkedin.com/company/optomatica/</t>
   </si>
   <si>
-    <t>Flat 102, 1st Floor Building 11, The 6th Touristic Area 6th of October, Cairo, Egypt
- Flat 102, 1st Floor Building 11, The 6th Touristic Area, 6th of October, Giza-12582, Egypt</t>
+    <t xml:space="preserve"> Flat 102, 1st Floor Building 11, The 6th Touristic Area, 6th of October, Giza-12582, Egypt
+Flat 102, 1st Floor Building 11, The 6th Touristic Area 6th of October, Cairo, Egypt</t>
   </si>
   <si>
     <t>O
@@ -5253,12 +5254,12 @@
     <t>twitter.com/butterflyonleaf</t>
   </si>
   <si>
-    <t>www.linkedin.com/in/david-van-valen-m-d-ph-d-93485629
+    <t>www.linkedin.com/in/mariano-ferrario-b3a980/
+www.linkedin.com/in/david-van-valen-m-d-ph-d-93485629
+www.linkedin.com/in/imansadreddin
+www.linkedin.com/in/larry-zuckerman-1078181
 www.linkedin.com/in/samehsarhan
-www.linkedin.com/company/xtrava
-www.linkedin.com/in/imansadreddin
-www.linkedin.com/in/mariano-ferrario-b3a980/
-www.linkedin.com/in/larry-zuckerman-1078181</t>
+www.linkedin.com/company/xtrava</t>
   </si>
   <si>
     <t>Y
@@ -5341,39 +5342,29 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="000000FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -5387,18 +5378,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -5686,27 +5675,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="2" max="2" width="329" customWidth="1"/>
-    <col min="3" max="3" width="157" customWidth="1"/>
-    <col min="4" max="4" width="195" customWidth="1"/>
-    <col min="5" max="5" width="324" customWidth="1"/>
-    <col min="6" max="6" width="240" customWidth="1"/>
-    <col min="7" max="7" width="35" customWidth="1"/>
-    <col min="8" max="8" width="56" customWidth="1"/>
-    <col min="9" max="9" width="176" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="53"/>
+    <col customWidth="1" max="2" min="2" width="329"/>
+    <col customWidth="1" max="3" min="3" width="157"/>
+    <col customWidth="1" max="4" min="4" width="195"/>
+    <col customWidth="1" max="5" min="5" width="324"/>
+    <col customWidth="1" max="6" min="6" width="240"/>
+    <col customWidth="1" max="7" min="7" width="35"/>
+    <col customWidth="1" max="8" min="8" width="56"/>
+    <col customWidth="1" max="9" min="9" width="176"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5754,6 +5750,7 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
+      <c r="G2" t="s"/>
       <c r="H2" t="s">
         <v>15</v>
       </c>
@@ -5780,6 +5777,9 @@
       <c r="F3" t="s">
         <v>22</v>
       </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
@@ -5794,9 +5794,13 @@
       <c r="D4" t="s">
         <v>26</v>
       </c>
+      <c r="E4" t="s"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
@@ -5808,6 +5812,12 @@
       <c r="C5" t="s">
         <v>30</v>
       </c>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
@@ -5819,6 +5829,12 @@
       <c r="C6" t="s">
         <v>33</v>
       </c>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
@@ -5836,9 +5852,12 @@
       <c r="E7" t="s">
         <v>38</v>
       </c>
+      <c r="F7" t="s"/>
       <c r="G7" t="s">
         <v>39</v>
       </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
@@ -5850,6 +5869,12 @@
       <c r="C8" t="s">
         <v>42</v>
       </c>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
@@ -5873,6 +5898,7 @@
       <c r="G9" t="s">
         <v>49</v>
       </c>
+      <c r="H9" t="s"/>
       <c r="I9" t="s">
         <v>50</v>
       </c>
@@ -5893,6 +5919,10 @@
       <c r="E10" t="s">
         <v>55</v>
       </c>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
@@ -5913,6 +5943,8 @@
       <c r="F11" t="s">
         <v>61</v>
       </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s"/>
       <c r="I11" t="s">
         <v>62</v>
       </c>
@@ -5933,6 +5965,10 @@
       <c r="E12" t="s">
         <v>67</v>
       </c>
+      <c r="F12" t="s"/>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
@@ -5953,6 +5989,9 @@
       <c r="F13" t="s">
         <v>73</v>
       </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
@@ -5973,6 +6012,7 @@
       <c r="F14" t="s">
         <v>79</v>
       </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
         <v>80</v>
       </c>
@@ -5990,12 +6030,16 @@
       <c r="C15" t="s">
         <v>84</v>
       </c>
+      <c r="D15" t="s"/>
       <c r="E15" t="s">
         <v>85</v>
       </c>
       <c r="F15" t="s">
         <v>86</v>
       </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
@@ -6016,6 +6060,9 @@
       <c r="F16" t="s">
         <v>92</v>
       </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
@@ -6027,6 +6074,12 @@
       <c r="C17" t="s">
         <v>95</v>
       </c>
+      <c r="D17" t="s"/>
+      <c r="E17" t="s"/>
+      <c r="F17" t="s"/>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
@@ -6047,6 +6100,8 @@
       <c r="F18" t="s">
         <v>101</v>
       </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s"/>
       <c r="I18" t="s">
         <v>102</v>
       </c>
@@ -6061,6 +6116,12 @@
       <c r="C19" t="s">
         <v>105</v>
       </c>
+      <c r="D19" t="s"/>
+      <c r="E19" t="s"/>
+      <c r="F19" t="s"/>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
@@ -6078,6 +6139,10 @@
       <c r="E20" t="s">
         <v>55</v>
       </c>
+      <c r="F20" t="s"/>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
@@ -6089,9 +6154,14 @@
       <c r="C21" t="s">
         <v>110</v>
       </c>
+      <c r="D21" t="s"/>
       <c r="E21" t="s">
         <v>111</v>
       </c>
+      <c r="F21" t="s"/>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
@@ -6103,6 +6173,12 @@
       <c r="C22" t="s">
         <v>114</v>
       </c>
+      <c r="D22" t="s"/>
+      <c r="E22" t="s"/>
+      <c r="F22" t="s"/>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
@@ -6123,6 +6199,9 @@
       <c r="F23" t="s">
         <v>120</v>
       </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
@@ -6146,6 +6225,7 @@
       <c r="G24" t="s">
         <v>127</v>
       </c>
+      <c r="H24" t="s"/>
       <c r="I24" t="s">
         <v>128</v>
       </c>
@@ -6163,12 +6243,15 @@
       <c r="D25" t="s">
         <v>132</v>
       </c>
+      <c r="E25" t="s"/>
       <c r="F25" t="s">
         <v>133</v>
       </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
         <v>134</v>
       </c>
+      <c r="I25" t="s"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
@@ -6189,6 +6272,8 @@
       <c r="F26" t="s">
         <v>139</v>
       </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s"/>
       <c r="I26" t="s">
         <v>50</v>
       </c>
@@ -6203,6 +6288,12 @@
       <c r="C27" t="s">
         <v>142</v>
       </c>
+      <c r="D27" t="s"/>
+      <c r="E27" t="s"/>
+      <c r="F27" t="s"/>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
@@ -6217,12 +6308,15 @@
       <c r="D28" t="s">
         <v>145</v>
       </c>
+      <c r="E28" t="s"/>
       <c r="F28" t="s">
         <v>146</v>
       </c>
       <c r="G28" t="s">
         <v>147</v>
       </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
@@ -6243,6 +6337,9 @@
       <c r="F29" t="s">
         <v>153</v>
       </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
@@ -6283,6 +6380,12 @@
       <c r="C31" t="s">
         <v>164</v>
       </c>
+      <c r="D31" t="s"/>
+      <c r="E31" t="s"/>
+      <c r="F31" t="s"/>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
@@ -6303,6 +6406,8 @@
       <c r="F32" t="s">
         <v>170</v>
       </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s"/>
       <c r="I32" t="s">
         <v>171</v>
       </c>
@@ -6326,6 +6431,9 @@
       <c r="F33" t="s">
         <v>177</v>
       </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
@@ -6372,9 +6480,11 @@
       <c r="E35" t="s">
         <v>191</v>
       </c>
+      <c r="F35" t="s"/>
       <c r="G35" t="s">
         <v>192</v>
       </c>
+      <c r="H35" t="s"/>
       <c r="I35" t="s">
         <v>193</v>
       </c>
@@ -6389,9 +6499,14 @@
       <c r="C36" t="s">
         <v>196</v>
       </c>
+      <c r="D36" t="s"/>
+      <c r="E36" t="s"/>
+      <c r="F36" t="s"/>
       <c r="G36" t="s">
         <v>197</v>
       </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
@@ -6403,6 +6518,12 @@
       <c r="C37" t="s">
         <v>200</v>
       </c>
+      <c r="D37" t="s"/>
+      <c r="E37" t="s"/>
+      <c r="F37" t="s"/>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
@@ -6426,6 +6547,8 @@
       <c r="G38" t="s">
         <v>207</v>
       </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
@@ -6440,9 +6563,13 @@
       <c r="D39" t="s">
         <v>211</v>
       </c>
+      <c r="E39" t="s"/>
       <c r="F39" t="s">
         <v>212</v>
       </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
@@ -6454,9 +6581,14 @@
       <c r="C40" t="s">
         <v>215</v>
       </c>
+      <c r="D40" t="s"/>
+      <c r="E40" t="s"/>
+      <c r="F40" t="s"/>
       <c r="G40" t="s">
         <v>216</v>
       </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
@@ -6480,6 +6612,8 @@
       <c r="G41" t="s">
         <v>223</v>
       </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
@@ -6500,6 +6634,9 @@
       <c r="F42" t="s">
         <v>229</v>
       </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
@@ -6523,6 +6660,8 @@
       <c r="G43" t="s">
         <v>236</v>
       </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
@@ -6537,6 +6676,8 @@
       <c r="D44" t="s">
         <v>240</v>
       </c>
+      <c r="E44" t="s"/>
+      <c r="F44" t="s"/>
       <c r="G44" t="s">
         <v>241</v>
       </c>
@@ -6566,6 +6707,9 @@
       <c r="F45" t="s">
         <v>248</v>
       </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
@@ -6583,6 +6727,10 @@
       <c r="E46" t="s">
         <v>253</v>
       </c>
+      <c r="F46" t="s"/>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
@@ -6600,9 +6748,11 @@
       <c r="E47" t="s">
         <v>258</v>
       </c>
+      <c r="F47" t="s"/>
       <c r="G47" t="s">
         <v>259</v>
       </c>
+      <c r="H47" t="s"/>
       <c r="I47" t="s">
         <v>260</v>
       </c>
@@ -6617,8 +6767,14 @@
       <c r="C48" t="s">
         <v>263</v>
       </c>
+      <c r="D48" t="s"/>
+      <c r="E48" t="s"/>
+      <c r="F48" t="s"/>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>264</v>
       </c>
@@ -6637,8 +6793,11 @@
       <c r="F49" t="s">
         <v>269</v>
       </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>270</v>
       </c>
@@ -6648,8 +6807,14 @@
       <c r="C50" t="s">
         <v>272</v>
       </c>
+      <c r="D50" t="s"/>
+      <c r="E50" t="s"/>
+      <c r="F50" t="s"/>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>273</v>
       </c>
@@ -6662,11 +6827,15 @@
       <c r="D51" t="s">
         <v>276</v>
       </c>
+      <c r="E51" t="s"/>
       <c r="F51" t="s">
         <v>277</v>
       </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>278</v>
       </c>
@@ -6676,8 +6845,14 @@
       <c r="C52" t="s">
         <v>280</v>
       </c>
+      <c r="D52" t="s"/>
+      <c r="E52" t="s"/>
+      <c r="F52" t="s"/>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>281</v>
       </c>
@@ -6687,8 +6862,14 @@
       <c r="C53" t="s">
         <v>282</v>
       </c>
+      <c r="D53" t="s"/>
+      <c r="E53" t="s"/>
+      <c r="F53" t="s"/>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>283</v>
       </c>
@@ -6707,8 +6888,11 @@
       <c r="F54" t="s">
         <v>288</v>
       </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>289</v>
       </c>
@@ -6721,11 +6905,15 @@
       <c r="D55" t="s">
         <v>292</v>
       </c>
+      <c r="E55" t="s"/>
+      <c r="F55" t="s"/>
       <c r="G55" t="s">
         <v>293</v>
       </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>294</v>
       </c>
@@ -6735,8 +6923,14 @@
       <c r="C56" t="s">
         <v>296</v>
       </c>
+      <c r="D56" t="s"/>
+      <c r="E56" t="s"/>
+      <c r="F56" t="s"/>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>297</v>
       </c>
@@ -6746,8 +6940,14 @@
       <c r="C57" t="s">
         <v>299</v>
       </c>
+      <c r="D57" t="s"/>
+      <c r="E57" t="s"/>
+      <c r="F57" t="s"/>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>300</v>
       </c>
@@ -6757,8 +6957,14 @@
       <c r="C58" t="s">
         <v>302</v>
       </c>
+      <c r="D58" t="s"/>
+      <c r="E58" t="s"/>
+      <c r="F58" t="s"/>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>303</v>
       </c>
@@ -6768,8 +6974,14 @@
       <c r="C59" t="s">
         <v>305</v>
       </c>
+      <c r="D59" t="s"/>
+      <c r="E59" t="s"/>
+      <c r="F59" t="s"/>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>306</v>
       </c>
@@ -6788,8 +7000,11 @@
       <c r="F60" t="s">
         <v>311</v>
       </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>312</v>
       </c>
@@ -6805,12 +7020,14 @@
       <c r="E61" t="s">
         <v>316</v>
       </c>
+      <c r="F61" t="s"/>
       <c r="G61" t="s">
         <v>317</v>
       </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>